--- a/飞鹤稳定性实验/飞鹤稳定性实验.xlsx
+++ b/飞鹤稳定性实验/飞鹤稳定性实验.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenzhihao\Desktop\筛菌\飞鹤稳定性实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E024EC-3120-44A2-B62C-D123C2A0879C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D110E220-BD8B-4CDB-86CB-8A79B29ED4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>飞鹤-货架期-稳定性实验</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,7 +120,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冰箱保存</t>
+    <t>动物双歧</t>
+  </si>
+  <si>
+    <t>动物双歧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套峰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,8 +171,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,8 +198,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -267,11 +299,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -290,17 +337,30 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -581,13 +641,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="29.4140625" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
@@ -597,18 +657,18 @@
     <col min="9" max="9" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:9" ht="14.5" thickBot="1">
+      <c r="A1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.5" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,37 +685,36 @@
         <v>3</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6">
-        <v>45</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="B3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="19">
+        <v>50</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -671,84 +730,131 @@
       <c r="E4" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="9">
-        <v>47</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9">
-        <v>48</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="B6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="12">
+        <v>49</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="13">
-        <v>49</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.5" thickBot="1">
+      <c r="A8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="16">
-        <v>50</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
+      <c r="B8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="20">
+        <v>47</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.5" thickTop="1"/>
+    <row r="10" spans="1:9">
+      <c r="A10" s="15"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="G15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:I9">
+    <sortCondition ref="G3:G9"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
